--- a/Team-Data/2014-15/12-31-2014-15.xlsx
+++ b/Team-Data/2014-15/12-31-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>4.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>4</v>
@@ -756,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
@@ -777,13 +844,13 @@
         <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -792,19 +859,19 @@
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
@@ -813,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -848,88 +915,88 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.379</v>
+        <v>0.357</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J3" t="n">
-        <v>87.7</v>
+        <v>87.5</v>
       </c>
       <c r="K3" t="n">
         <v>0.46</v>
       </c>
       <c r="L3" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.322</v>
+        <v>0.324</v>
       </c>
       <c r="O3" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P3" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R3" t="n">
         <v>10.5</v>
       </c>
       <c r="S3" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="T3" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U3" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
         <v>8.4</v>
       </c>
       <c r="X3" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
         <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB3" t="n">
         <v>103.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD3" t="n">
         <v>30</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
         <v>18</v>
@@ -938,7 +1005,7 @@
         <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>3</v>
@@ -947,19 +1014,19 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -977,19 +1044,19 @@
         <v>11</v>
       </c>
       <c r="AU3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ3" t="n">
         <v>18</v>
@@ -1001,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-1.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE4" t="n">
         <v>16</v>
       </c>
       <c r="AF4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>16</v>
@@ -1123,25 +1190,25 @@
         <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>18</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>18</v>
@@ -1159,7 +1226,7 @@
         <v>21</v>
       </c>
       <c r="AU4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>13</v>
@@ -1168,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="AX4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -1212,49 +1279,49 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>0.303</v>
+        <v>0.313</v>
       </c>
       <c r="H5" t="n">
         <v>48.9</v>
       </c>
       <c r="I5" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>85.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
         <v>19.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.317</v>
+        <v>0.322</v>
       </c>
       <c r="O5" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P5" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.741</v>
+        <v>0.737</v>
       </c>
       <c r="R5" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S5" t="n">
         <v>32.5</v>
@@ -1263,49 +1330,49 @@
         <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V5" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="W5" t="n">
         <v>5.7</v>
       </c>
       <c r="X5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y5" t="n">
         <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.3</v>
+        <v>95.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-5.1</v>
+        <v>-4.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG5" t="n">
         <v>25</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>26</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1314,7 +1381,7 @@
         <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
         <v>25</v>
@@ -1326,7 +1393,7 @@
         <v>23</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>21</v>
@@ -1344,28 +1411,28 @@
         <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="n">
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB5" t="n">
         <v>25</v>
       </c>
       <c r="BC5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -1472,25 +1539,25 @@
         <v>4.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>7</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
         <v>19</v>
@@ -1502,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1511,13 +1578,13 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT6" t="n">
         <v>4</v>
@@ -1544,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="BB6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -1576,85 +1643,85 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.1</v>
+        <v>37.4</v>
       </c>
       <c r="J7" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K7" t="n">
-        <v>0.457</v>
+        <v>0.461</v>
       </c>
       <c r="L7" t="n">
         <v>8.1</v>
       </c>
       <c r="M7" t="n">
-        <v>23.3</v>
+        <v>23</v>
       </c>
       <c r="N7" t="n">
-        <v>0.346</v>
+        <v>0.35</v>
       </c>
       <c r="O7" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P7" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R7" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S7" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T7" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="U7" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V7" t="n">
         <v>13.9</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y7" t="n">
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.5</v>
+        <v>102.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
         <v>12</v>
@@ -1663,22 +1730,22 @@
         <v>11</v>
       </c>
       <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK7" t="n">
         <v>12</v>
       </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>16</v>
-      </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>12</v>
@@ -1687,25 +1754,25 @@
         <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS7" t="n">
         <v>26</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1717,19 +1784,19 @@
         <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.719</v>
+        <v>0.697</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="J8" t="n">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="K8" t="n">
         <v>0.478</v>
@@ -1785,31 +1852,31 @@
         <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>26.7</v>
       </c>
       <c r="N8" t="n">
         <v>0.355</v>
       </c>
       <c r="O8" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P8" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R8" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S8" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>41.8</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
         <v>12.3</v>
@@ -1818,7 +1885,7 @@
         <v>8.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
         <v>3.5</v>
@@ -1827,28 +1894,28 @@
         <v>20.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.9</v>
+        <v>109.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1869,28 +1936,28 @@
         <v>15</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
         <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>-3</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2051,13 +2118,13 @@
         <v>29</v>
       </c>
       <c r="AO9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP9" t="n">
         <v>6</v>
       </c>
-      <c r="AP9" t="n">
-        <v>5</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
@@ -2069,10 +2136,10 @@
         <v>3</v>
       </c>
       <c r="AU9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV9" t="n">
         <v>18</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>19</v>
       </c>
       <c r="AW9" t="n">
         <v>22</v>
@@ -2081,16 +2148,16 @@
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC9" t="n">
         <v>21</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>-4.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
         <v>27</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>26</v>
@@ -2224,13 +2291,13 @@
         <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>25</v>
@@ -2248,7 +2315,7 @@
         <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU10" t="n">
         <v>22</v>
@@ -2260,7 +2327,7 @@
         <v>18</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>2</v>
@@ -2409,16 +2476,16 @@
         <v>5</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN11" t="n">
         <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ11" t="n">
         <v>6</v>
@@ -2451,7 +2518,7 @@
         <v>11</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -2501,40 +2568,40 @@
         <v>48.7</v>
       </c>
       <c r="I12" t="n">
-        <v>35.6</v>
+        <v>35.4</v>
       </c>
       <c r="J12" t="n">
-        <v>82.8</v>
+        <v>82.3</v>
       </c>
       <c r="K12" t="n">
         <v>0.43</v>
       </c>
       <c r="L12" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>34.4</v>
+        <v>34</v>
       </c>
       <c r="N12" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>17.7</v>
+        <v>18.5</v>
       </c>
       <c r="P12" t="n">
-        <v>25</v>
+        <v>26.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.708</v>
+        <v>0.707</v>
       </c>
       <c r="R12" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S12" t="n">
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="U12" t="n">
         <v>20</v>
@@ -2543,22 +2610,22 @@
         <v>17.4</v>
       </c>
       <c r="W12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="AC12" t="n">
         <v>3.5</v>
@@ -2567,13 +2634,13 @@
         <v>26</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
         <v>7</v>
@@ -2594,28 +2661,28 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT12" t="n">
         <v>9</v>
       </c>
       <c r="AU12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,16 +2691,16 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.364</v>
+        <v>0.344</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,67 +2753,67 @@
         <v>36.3</v>
       </c>
       <c r="J13" t="n">
-        <v>84.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.432</v>
+        <v>0.431</v>
       </c>
       <c r="L13" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.341</v>
+        <v>0.335</v>
       </c>
       <c r="O13" t="n">
-        <v>15.2</v>
+        <v>14.8</v>
       </c>
       <c r="P13" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.735</v>
+        <v>0.729</v>
       </c>
       <c r="R13" t="n">
         <v>11</v>
       </c>
       <c r="S13" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="T13" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="U13" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V13" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X13" t="n">
         <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.4</v>
+        <v>-1.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2758,10 +2825,10 @@
         <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
@@ -2770,13 +2837,13 @@
         <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
         <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2785,16 +2852,16 @@
         <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR13" t="n">
         <v>14</v>
       </c>
       <c r="AS13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU13" t="n">
         <v>21</v>
@@ -2806,22 +2873,22 @@
         <v>30</v>
       </c>
       <c r="AX13" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
         <v>19</v>
       </c>
       <c r="BA13" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>28</v>
+      </c>
+      <c r="BC13" t="n">
         <v>20</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -2850,61 +2917,61 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.656</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J14" t="n">
         <v>81.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="N14" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O14" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P14" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.753</v>
+        <v>0.757</v>
       </c>
       <c r="R14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>40.9</v>
+        <v>40.6</v>
       </c>
       <c r="U14" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="V14" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W14" t="n">
         <v>7.7</v>
@@ -2913,25 +2980,25 @@
         <v>4.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.9</v>
+        <v>106.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
@@ -2943,16 +3010,16 @@
         <v>27</v>
       </c>
       <c r="AI14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL14" t="n">
         <v>4</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>2</v>
       </c>
       <c r="AM14" t="n">
         <v>5</v>
@@ -2961,22 +3028,22 @@
         <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
         <v>10</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AT14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -2988,19 +3055,19 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
       </c>
       <c r="BB14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>0.323</v>
+        <v>0.313</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>38.5</v>
+        <v>38.2</v>
       </c>
       <c r="J15" t="n">
-        <v>87.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L15" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M15" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O15" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>25.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T15" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.5</v>
@@ -3092,40 +3159,40 @@
         <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>103</v>
+        <v>102.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.1</v>
+        <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
       </c>
       <c r="AH15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI15" t="n">
         <v>12</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>2</v>
@@ -3134,7 +3201,7 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM15" t="n">
         <v>21</v>
@@ -3143,25 +3210,25 @@
         <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV15" t="n">
         <v>6</v>
@@ -3170,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>7</v>
@@ -3179,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BB15" t="n">
         <v>8</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3313,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
@@ -3322,13 +3389,13 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
@@ -3346,13 +3413,13 @@
         <v>9</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
         <v>10</v>
       </c>
       <c r="AX16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY16" t="n">
         <v>22</v>
@@ -3364,7 +3431,7 @@
         <v>17</v>
       </c>
       <c r="BB16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -3396,46 +3463,46 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" t="n">
-        <v>0.424</v>
+        <v>0.438</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J17" t="n">
-        <v>74.40000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L17" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M17" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O17" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="P17" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R17" t="n">
         <v>8.199999999999999</v>
@@ -3450,19 +3517,19 @@
         <v>19.8</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y17" t="n">
         <v>4.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA17" t="n">
         <v>20.8</v>
@@ -3471,16 +3538,16 @@
         <v>94.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.4</v>
+        <v>-3.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>18</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
@@ -3504,16 +3571,16 @@
         <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3531,7 +3598,7 @@
         <v>12</v>
       </c>
       <c r="AW17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
         <v>30</v>
@@ -3543,10 +3610,10 @@
         <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -3578,94 +3645,94 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="n">
         <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.515</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.8</v>
       </c>
       <c r="I18" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J18" t="n">
-        <v>81.5</v>
+        <v>81.3</v>
       </c>
       <c r="K18" t="n">
         <v>0.464</v>
       </c>
       <c r="L18" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.364</v>
+        <v>0.361</v>
       </c>
       <c r="O18" t="n">
-        <v>16.7</v>
+        <v>17.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.776</v>
+        <v>0.78</v>
       </c>
       <c r="R18" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S18" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="T18" t="n">
-        <v>40.9</v>
+        <v>40.5</v>
       </c>
       <c r="U18" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V18" t="n">
-        <v>16.9</v>
+        <v>17.1</v>
       </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y18" t="n">
         <v>4.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>5</v>
@@ -3674,40 +3741,40 @@
         <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR18" t="n">
         <v>22</v>
       </c>
       <c r="AS18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV18" t="n">
         <v>28</v>
@@ -3722,16 +3789,16 @@
         <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>19</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -3850,13 +3917,13 @@
         <v>28</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3868,16 +3935,16 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3892,7 +3959,7 @@
         <v>12</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>4</v>
@@ -3904,13 +3971,13 @@
         <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA19" t="n">
         <v>4</v>
       </c>
       <c r="BB19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -3945,100 +4012,100 @@
         <v>31</v>
       </c>
       <c r="E20" t="n">
+        <v>16</v>
+      </c>
+      <c r="F20" t="n">
         <v>15</v>
       </c>
-      <c r="F20" t="n">
-        <v>16</v>
-      </c>
       <c r="G20" t="n">
-        <v>0.484</v>
+        <v>0.516</v>
       </c>
       <c r="H20" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="J20" t="n">
-        <v>84.90000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
         <v>0.338</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.765</v>
+        <v>0.75</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.8</v>
+        <v>43.1</v>
       </c>
       <c r="U20" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>101.6</v>
+        <v>101.9</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>8</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
@@ -4053,49 +4120,49 @@
         <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -4124,52 +4191,52 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" t="n">
-        <v>0.147</v>
+        <v>0.152</v>
       </c>
       <c r="H21" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J21" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L21" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N21" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O21" t="n">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="P21" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T21" t="n">
         <v>39.4</v>
@@ -4178,31 +4245,31 @@
         <v>21.2</v>
       </c>
       <c r="V21" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W21" t="n">
         <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y21" t="n">
         <v>3.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.2</v>
+        <v>-6.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
@@ -4214,19 +4281,19 @@
         <v>29</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM21" t="n">
         <v>22</v>
@@ -4244,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4256,7 +4323,7 @@
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
         <v>21</v>
@@ -4274,7 +4341,7 @@
         <v>26</v>
       </c>
       <c r="BB21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BC21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -4306,97 +4373,97 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="n">
         <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>0.485</v>
+        <v>0.469</v>
       </c>
       <c r="H22" t="n">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J22" t="n">
-        <v>83.3</v>
+        <v>82.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>22.1</v>
+        <v>21.7</v>
       </c>
       <c r="N22" t="n">
         <v>0.324</v>
       </c>
       <c r="O22" t="n">
-        <v>18.1</v>
+        <v>17.3</v>
       </c>
       <c r="P22" t="n">
-        <v>24.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.745</v>
+        <v>0.735</v>
       </c>
       <c r="R22" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="S22" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T22" t="n">
-        <v>46.4</v>
+        <v>46.3</v>
       </c>
       <c r="U22" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V22" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W22" t="n">
         <v>6.7</v>
       </c>
       <c r="X22" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y22" t="n">
         <v>4.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>99.2</v>
+        <v>98</v>
       </c>
       <c r="AC22" t="n">
         <v>1.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF22" t="n">
         <v>17</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>18</v>
@@ -4408,28 +4475,28 @@
         <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP22" t="n">
         <v>14</v>
       </c>
-      <c r="AN22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS22" t="n">
         <v>4</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>5</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -4441,25 +4508,25 @@
         <v>25</v>
       </c>
       <c r="AW22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>14</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BB22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -4488,55 +4555,55 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" t="n">
         <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G23" t="n">
-        <v>0.382</v>
+        <v>0.371</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J23" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L23" t="n">
         <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N23" t="n">
         <v>0.374</v>
       </c>
       <c r="O23" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="P23" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>40.9</v>
       </c>
       <c r="U23" t="n">
         <v>19.9</v>
@@ -4548,22 +4615,22 @@
         <v>6.7</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA23" t="n">
         <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,7 +4639,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
@@ -4581,22 +4648,22 @@
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4605,31 +4672,31 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT23" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX23" t="n">
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>17</v>
@@ -4638,10 +4705,10 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -4760,19 +4827,19 @@
         <v>30</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4781,22 +4848,22 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU24" t="n">
         <v>28</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -4852,58 +4919,58 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" t="n">
         <v>18</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>0.529</v>
+        <v>0.545</v>
       </c>
       <c r="H25" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="J25" t="n">
-        <v>85.8</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L25" t="n">
         <v>10.1</v>
       </c>
       <c r="M25" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
       <c r="O25" t="n">
-        <v>17.4</v>
+        <v>17.1</v>
       </c>
       <c r="P25" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="R25" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S25" t="n">
         <v>31.4</v>
       </c>
       <c r="T25" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V25" t="n">
         <v>14.8</v>
@@ -4912,25 +4979,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y25" t="n">
         <v>3.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>106.5</v>
+        <v>105.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4942,16 +5009,16 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ25" t="n">
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -4960,49 +5027,49 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
       </c>
       <c r="AR25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS25" t="n">
         <v>19</v>
       </c>
-      <c r="AS25" t="n">
+      <c r="AT25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV25" t="n">
         <v>20</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>21</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>7.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5124,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
         <v>6</v>
@@ -5136,16 +5203,16 @@
         <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP26" t="n">
         <v>28</v>
@@ -5154,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5169,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX26" t="n">
         <v>7</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
       </c>
       <c r="F27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" t="n">
-        <v>0.406</v>
+        <v>0.419</v>
       </c>
       <c r="H27" t="n">
         <v>48.8</v>
       </c>
       <c r="I27" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>79.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.458</v>
+        <v>0.461</v>
       </c>
       <c r="L27" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M27" t="n">
         <v>15.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.341</v>
+        <v>0.347</v>
       </c>
       <c r="O27" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="P27" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.772</v>
+        <v>0.775</v>
       </c>
       <c r="R27" t="n">
         <v>11.3</v>
@@ -5264,43 +5331,43 @@
         <v>33.4</v>
       </c>
       <c r="T27" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.1</v>
+        <v>-1.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
         <v>19</v>
       </c>
       <c r="AF27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
         <v>19</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5324,7 +5391,7 @@
         <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
@@ -5345,13 +5412,13 @@
         <v>8</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5360,16 +5427,16 @@
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BC27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -5410,25 +5477,25 @@
         <v>0.576</v>
       </c>
       <c r="H28" t="n">
-        <v>49.4</v>
+        <v>49.2</v>
       </c>
       <c r="I28" t="n">
         <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>82.90000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.464</v>
+        <v>0.466</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="N28" t="n">
-        <v>0.368</v>
+        <v>0.377</v>
       </c>
       <c r="O28" t="n">
         <v>17.3</v>
@@ -5437,31 +5504,31 @@
         <v>22.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>34.5</v>
+        <v>34.1</v>
       </c>
       <c r="T28" t="n">
-        <v>44.3</v>
+        <v>44</v>
       </c>
       <c r="U28" t="n">
         <v>24.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z28" t="n">
         <v>19.6</v>
@@ -5470,58 +5537,58 @@
         <v>20.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.2</v>
+        <v>102.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>11</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
         <v>10</v>
@@ -5530,25 +5597,25 @@
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
       </c>
       <c r="AZ28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>3</v>
@@ -5673,10 +5740,10 @@
         <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
         <v>10</v>
@@ -5688,19 +5755,19 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ29" t="n">
         <v>4</v>
       </c>
       <c r="AR29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5712,10 +5779,10 @@
         <v>17</v>
       </c>
       <c r="AV29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-3.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF30" t="n">
         <v>22</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5873,31 +5940,31 @@
         <v>25</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX30" t="n">
         <v>8</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>7</v>
@@ -6031,22 +6098,22 @@
         <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM31" t="n">
         <v>28</v>
@@ -6061,7 +6128,7 @@
         <v>22</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
         <v>18</v>
@@ -6076,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW31" t="n">
         <v>12</v>
@@ -6091,7 +6158,7 @@
         <v>23</v>
       </c>
       <c r="BA31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-31-2014-15</t>
+          <t>2014-12-31</t>
         </is>
       </c>
     </row>
